--- a/purchases.xlsx
+++ b/purchases.xlsx
@@ -465,7 +465,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -486,7 +486,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -507,7 +507,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -528,7 +528,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -549,7 +549,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -570,7 +570,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -591,7 +591,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -612,7 +612,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
